--- a/spliced/walkingToRunning/2023-03-26_17-10-55/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_17-10-55/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>-1.684976100921631</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-2.787195682525635</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8.478515625</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.063291549682615</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-10.50285053253174</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-24.10493659973145</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-11.3930606842041</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.336788654327393</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.028789520263672</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-11.69052314758301</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-33.8237419128418</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-34.27063751220703</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-13.57823276519775</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-2.554568767547607</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-39.26761627197266</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.68596649169922</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-6.776285171508789</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9.06696891784668</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.473462343215942</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-4.451385021209717</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-37.8787841796875</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33.21585845947266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-25.62279510498047</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.356860160827637</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-15.05502891540527</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-8.065028190612793</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.866869926452637</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-9.438656806945801</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>26.9844970703125</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-14.56967449188232</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10.2812442779541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
